--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_3_fts.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_3_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21D5D7-5219-4A46-B0E1-D651C67BF514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A2D18-E8F3-4BC4-9780-063456135E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -461,9 +461,6 @@
     <t>d_recorder</t>
   </si>
   <si>
-    <t>concat(${d_recorder}, '-', ${d_site_id}, '-' ,${d_num})</t>
-  </si>
-  <si>
     <t>end repeat</t>
   </si>
   <si>
@@ -486,6 +483,9 @@
   </si>
   <si>
     <t>ci_fts_2406_2</t>
+  </si>
+  <si>
+    <t>concat(${d_recorder}, '_', ${d_site_id}, '_' ,${d_num})</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1041,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1245,7 +1245,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
@@ -1256,7 +1256,7 @@
         <v>136</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>137</v>
@@ -1307,7 +1307,7 @@
       <c r="G10" s="33"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
@@ -1336,10 +1336,10 @@
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -1366,7 +1366,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>19</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="33" spans="1:14" customFormat="1">
       <c r="A33" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="40"/>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>128</v>

--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_3_fts.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_3_fts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A2D18-E8F3-4BC4-9780-063456135E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25876F34-43D7-4E35-8A38-6D9772EFE875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,16 +476,16 @@
     <t>(. &gt; 0 and . &lt;= 410) and not(selected(${C3}, ${d_num}))</t>
   </si>
   <si>
-    <t>(2024 Juillet) 3. Pre-TAS FL Résultat FTS V2</t>
-  </si>
-  <si>
-    <t>ci_lf_pretas_2406_2_fts_v2</t>
-  </si>
-  <si>
-    <t>ci_fts_2406_2</t>
-  </si>
-  <si>
     <t>concat(${d_recorder}, '_', ${d_site_id}, '_' ,${d_num})</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) 3. Pre-TAS FL Résultat FTS V3</t>
+  </si>
+  <si>
+    <t>ci_lf_pretas_2406_2_fts_v3</t>
+  </si>
+  <si>
+    <t>ci_fts_2406_3</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1041,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1256,7 +1256,7 @@
         <v>136</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>137</v>
@@ -1366,7 +1366,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>19</v>
@@ -2120,7 +2120,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>128</v>

--- a/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_3_fts.xlsx
+++ b/LF/PreTAS/Ivory Coast/2024/ci_lf_pretas_2406_3_fts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Ivory Coast\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25876F34-43D7-4E35-8A38-6D9772EFE875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BD042D-8B9D-4A2F-9333-1369D49111F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="151">
   <si>
     <t>type</t>
   </si>
@@ -479,13 +479,13 @@
     <t>concat(${d_recorder}, '_', ${d_site_id}, '_' ,${d_num})</t>
   </si>
   <si>
-    <t>(2024 Juillet) 3. Pre-TAS FL Résultat FTS V3</t>
-  </si>
-  <si>
-    <t>ci_lf_pretas_2406_2_fts_v3</t>
-  </si>
-  <si>
-    <t>ci_fts_2406_3</t>
+    <t>ci_lf_pretas_2406_2_fts_v3_1</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) 3. Pre-TAS FL Résultat FTS V3.1</t>
+  </si>
+  <si>
+    <t>ci_fts_2406_31</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1041,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1566,9 +1566,7 @@
         <v>57</v>
       </c>
       <c r="I21" s="14"/>
-      <c r="J21" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -1781,9 +1779,7 @@
         <v>77</v>
       </c>
       <c r="I30" s="14"/>
-      <c r="J30" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
@@ -2120,7 +2116,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2146,10 +2142,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>128</v>
